--- a/grades_template.xlsx
+++ b/grades_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\MEGAsync\NoteUniv\NoteUniv-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104671E-3A5D-443A-BA82-E8918EDD4419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347D2F6-747D-4C73-90D8-E2EAAEC5673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,30 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>MMI1</t>
-  </si>
-  <si>
-    <t>MMI2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>LPDWEB</t>
   </si>
   <si>
     <t>LPMN</t>
-  </si>
-  <si>
-    <t>QLIO1</t>
-  </si>
-  <si>
-    <t>QLIO2</t>
-  </si>
-  <si>
-    <t>GEII1</t>
-  </si>
-  <si>
-    <t>GEII2</t>
   </si>
   <si>
     <t>LPLPI</t>
@@ -290,6 +272,15 @@
       </rPr>
       <t>Date de l'épreuve (jj/mm/aaaa)</t>
     </r>
+  </si>
+  <si>
+    <t>GEII</t>
+  </si>
+  <si>
+    <t>QLIO</t>
+  </si>
+  <si>
+    <t>MMI</t>
   </si>
 </sst>
 </file>
@@ -845,7 +836,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -853,10 +844,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,10 +856,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,10 +868,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -889,10 +880,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,13 +896,13 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1716,7 +1707,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="16" t="e">
@@ -1726,7 +1717,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="17">
@@ -1736,7 +1727,7 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="16">
@@ -1746,7 +1737,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="16">
@@ -1756,7 +1747,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="16" t="e">
@@ -1828,17 +1819,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>OFFSET('Select values'!$M$3,0,0,'Select values'!$N$3)</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
-            <xm:f>'Select values'!$B$2:$N$2</xm:f>
+            <xm:f>'Select values'!$B$2:$K$2</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>OFFSET('Select values'!$P$3,0,0,'Select values'!$Q$3)</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1848,21 +1839,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -1873,955 +1864,943 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A3,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF(P3:P101, "&lt;&gt;"&amp;0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIF(M3:M101, "&lt;&gt;"&amp;0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="P4">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A4,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="P5">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A5,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A5,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="P6">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A6,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="P7">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A7,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="P8">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A8,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A8,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="P9">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A9,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A9,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="P10">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A10,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A10,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="P11">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A11,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A11,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="P12">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A12,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A12,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="P13">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A13,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A13,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="P14">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A14,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A14,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="P15">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A15,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A15,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="P16">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A16,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A16,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="P17">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A17,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A17,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="P18">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A18,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A18,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="P19">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A19,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A19,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="P20">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A20,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A20,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="P21">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A21,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A21,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="P22">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A22,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A22,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="P23">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A23,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A23,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="P24">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A24,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A24,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="P25">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A25,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A25,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="P26">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A26,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A26,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="P27">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A27,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A27,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="P28">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A28,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A28,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="P29">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A29,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A29,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="P30">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A30,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A30,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="P31">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A31,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A31,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="P32">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A32,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A32,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="P33">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A33,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A33,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="P34">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A34,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A34,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="P35">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A35,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A35,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="P36">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A36,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A36,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="P37">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A37,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A37,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="P38">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A38,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A38,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="P39">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A39,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A39,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="P40">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A40,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A40,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="P41">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A41,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A41,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="P42">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A42,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A42,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="P43">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A43,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A43,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="P44">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A44,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A44,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="P45">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A45,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A45,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="P46">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A46,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A46,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="P47">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A47,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A47,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="P48">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A48,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A48,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="P49">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A49,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A49,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="P50">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A50,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A50,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="P51">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A51,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A51,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="P52">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A52,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A52,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="P53">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A53,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A53,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="P54">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A54,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A54,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="P55">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A55,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A55,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="P56">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A56,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A56,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="P57">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A57,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A57,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="P58">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A58,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A58,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="P59">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A59,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A59,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="P60">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A60,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A60,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="P61">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A61,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A61,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="P62">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A62,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A62,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="P63">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A63,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A63,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="P64">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A64,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A64,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="P65">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A65,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A65,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="P66">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A66,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A66,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="P67">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A67,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A67,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="P68">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A68,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A68,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="P69">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A69,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A69,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="P70">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A70,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A70,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="P71">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A71,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A71,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="P72">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A72,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A72,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="P73">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A73,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A73,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="P74">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A74,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A74,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="P75">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A75,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A75,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="P76">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A76,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A76,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="P77">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A77,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A77,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="P78">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A78,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A78,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="P79">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A79,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A79,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="P80">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A80,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A80,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="P81">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A81,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A81,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="P82">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A82,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A82,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="P83">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A83,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A83,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="P84">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A84,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A84,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="P85">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A85,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A85,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="P86">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A86,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A86,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="P87">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A87,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A87,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="P88">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A88,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A88,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="P89">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A89,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A89,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="P90">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A90,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A90,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="P91">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A91,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A91,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="P92">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A92,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A92,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="P93">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A93,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A93,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="P94">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A94,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A94,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="P95">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A95,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A95,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="P96">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A96,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A96,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="P97">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A97,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A97,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="P98">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A98,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A98,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="P99">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A99,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A99,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="P100">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A100,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A100,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="P101">
-        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$N$101,A101,FALSE),0)</f>
+      <c r="M101">
+        <f>IFERROR(HLOOKUP('Liste de saisie des notes'!$D$4,'Select values'!$B$2:$K$101,A101,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
